--- a/tms权限.xlsx
+++ b/tms权限.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiajie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\chbtms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21270" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21270" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
   <si>
     <t>运单管理</t>
   </si>
@@ -254,6 +256,86 @@
   <si>
     <t>审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、创建公司dbo.tb_b_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、创建管理员dbo.tb_b_user，ClientKind=99以便后面区分原始账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：部署给新的公司，快速搭建软环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、创建角色dbo.tb_b_roledb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、创建用户角色dbo.tb_b_user_role（只需关联 86FFCE23-9A68-43E0-9902-A0E1D6D95DA7 权限管理，后面可以界面勾选操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTSR</t>
+  </si>
+  <si>
+    <t>SSZB</t>
+  </si>
+  <si>
+    <t>SCFL</t>
+  </si>
+  <si>
+    <t>ZTBSH</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>QTYSK</t>
+  </si>
+  <si>
+    <t>JHDK</t>
+  </si>
+  <si>
+    <t>DCBZH</t>
+  </si>
+  <si>
+    <t>ZZGSPK</t>
+  </si>
+  <si>
+    <t>GHSHDZ</t>
+  </si>
+  <si>
+    <t>DFYF</t>
+  </si>
+  <si>
+    <t>HHYF</t>
+  </si>
+  <si>
+    <t>JZMTZHFK</t>
+  </si>
+  <si>
+    <t>GRPK</t>
+  </si>
+  <si>
+    <t>MNN</t>
+  </si>
+  <si>
+    <t>DQJK</t>
+  </si>
+  <si>
+    <t>NBWL</t>
+  </si>
+  <si>
+    <t>YKYJ</t>
+  </si>
+  <si>
+    <t>DDXHF</t>
+  </si>
+  <si>
+    <t>MYTY</t>
   </si>
 </sst>
 </file>
@@ -284,12 +366,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -306,12 +394,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,16 +692,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -614,7 +711,7 @@
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -625,13 +722,13 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -642,13 +739,13 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -659,10 +756,10 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -673,10 +770,10 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -687,10 +784,10 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -701,10 +798,10 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -715,13 +812,13 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -732,10 +829,10 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -746,10 +843,10 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -760,10 +857,10 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -774,10 +871,10 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -788,10 +885,10 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -802,10 +899,10 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -816,10 +913,10 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -830,10 +927,10 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -844,13 +941,13 @@
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -861,13 +958,13 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -886,10 +983,10 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -940,10 +1037,10 @@
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1120,4 +1217,169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="111.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tms权限.xlsx
+++ b/tms权限.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21270" windowHeight="7140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21270" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,316 +26,326 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
   <si>
     <t>运单管理</t>
   </si>
   <si>
+    <t>装车单管理</t>
+  </si>
+  <si>
+    <t>装车单编辑</t>
+  </si>
+  <si>
+    <t>财务核销管理</t>
+  </si>
+  <si>
+    <t>货物分流核销</t>
+  </si>
+  <si>
+    <t>司机押金管理</t>
+  </si>
+  <si>
+    <t>财务应收核销</t>
+  </si>
+  <si>
+    <t>预付运费核销</t>
+  </si>
+  <si>
+    <t>欠付运费核销</t>
+  </si>
+  <si>
+    <t>到付运费核销</t>
+  </si>
+  <si>
+    <t>财务应付核销</t>
+  </si>
+  <si>
+    <t>回扣核销</t>
+  </si>
+  <si>
+    <t>短驳费应付核销</t>
+  </si>
+  <si>
+    <t>办事处送货核销</t>
+  </si>
+  <si>
+    <t>办事处中转核销</t>
+  </si>
+  <si>
+    <t>司机预付核销</t>
+  </si>
+  <si>
+    <t>司机欠付核销</t>
+  </si>
+  <si>
+    <t>司机到付核销</t>
+  </si>
+  <si>
+    <t>财务登记管理</t>
+  </si>
+  <si>
+    <t>收款登记</t>
+  </si>
+  <si>
+    <t>费用登记</t>
+  </si>
+  <si>
+    <t>客户信用管理</t>
+  </si>
+  <si>
+    <t>客户信用授权</t>
+  </si>
+  <si>
+    <t>报表中心</t>
+  </si>
+  <si>
+    <t>运单一览表</t>
+  </si>
+  <si>
+    <t>装车单一览表</t>
+  </si>
+  <si>
+    <t>财务日记账</t>
+  </si>
+  <si>
+    <t>销售统计表</t>
+  </si>
+  <si>
+    <t>客户流失情况统计表</t>
+  </si>
+  <si>
+    <t>客户对账表</t>
+  </si>
+  <si>
+    <t>单车毛利明细表</t>
+  </si>
+  <si>
+    <t>利润分析报表</t>
+  </si>
+  <si>
+    <t>基础档案</t>
+  </si>
+  <si>
+    <t>办事处档案</t>
+  </si>
+  <si>
+    <t>线路档案</t>
+  </si>
+  <si>
+    <t>业务员档案</t>
+  </si>
+  <si>
+    <t>客户档案</t>
+  </si>
+  <si>
+    <t>货品档案</t>
+  </si>
+  <si>
+    <t>到达站档案</t>
+  </si>
+  <si>
+    <t>大车档案</t>
+  </si>
+  <si>
+    <t>小车档案</t>
+  </si>
+  <si>
+    <t>中转公司档案</t>
+  </si>
+  <si>
+    <t>银行账户</t>
+  </si>
+  <si>
+    <t>收款项目</t>
+  </si>
+  <si>
+    <t>付款项目</t>
+  </si>
+  <si>
+    <t>信用等级档案</t>
+  </si>
+  <si>
+    <t>系统维护中心</t>
+  </si>
+  <si>
+    <t>模块管理</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>人员管理</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>打印设置</t>
+  </si>
+  <si>
+    <t>打印信封</t>
+  </si>
+  <si>
+    <t>打印标签</t>
+  </si>
+  <si>
+    <t>打印运单</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单明细查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单明晰修改(普通)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单明晰修改(金额)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记</t>
+  </si>
+  <si>
+    <t>登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看费用字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认签收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、创建公司dbo.tb_b_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、创建管理员dbo.tb_b_user，ClientKind=99以便后面区分原始账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：部署给新的公司，快速搭建软环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、创建角色dbo.tb_b_roledb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、创建用户角色dbo.tb_b_user_role（只需关联 86FFCE23-9A68-43E0-9902-A0E1D6D95DA7 权限管理，后面可以界面勾选操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTSR</t>
+  </si>
+  <si>
+    <t>SSZB</t>
+  </si>
+  <si>
+    <t>SCFL</t>
+  </si>
+  <si>
+    <t>ZTBSH</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>QTYSK</t>
+  </si>
+  <si>
+    <t>JHDK</t>
+  </si>
+  <si>
+    <t>DCBZH</t>
+  </si>
+  <si>
+    <t>ZZGSPK</t>
+  </si>
+  <si>
+    <t>GHSHDZ</t>
+  </si>
+  <si>
+    <t>DFYF</t>
+  </si>
+  <si>
+    <t>HHYF</t>
+  </si>
+  <si>
+    <t>JZMTZHFK</t>
+  </si>
+  <si>
+    <t>GRPK</t>
+  </si>
+  <si>
+    <t>MNN</t>
+  </si>
+  <si>
+    <t>DQJK</t>
+  </si>
+  <si>
+    <t>NBWL</t>
+  </si>
+  <si>
+    <t>YKYJ</t>
+  </si>
+  <si>
+    <t>DDXHF</t>
+  </si>
+  <si>
+    <t>MYTY</t>
+  </si>
+  <si>
+    <t>运单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>运单编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回单批量登记</t>
-  </si>
-  <si>
-    <t>装车单管理</t>
-  </si>
-  <si>
-    <t>装车单编辑</t>
-  </si>
-  <si>
-    <t>财务核销管理</t>
-  </si>
-  <si>
-    <t>货物分流核销</t>
-  </si>
-  <si>
-    <t>司机押金管理</t>
-  </si>
-  <si>
-    <t>财务应收核销</t>
-  </si>
-  <si>
-    <t>预付运费核销</t>
-  </si>
-  <si>
-    <t>欠付运费核销</t>
-  </si>
-  <si>
-    <t>到付运费核销</t>
-  </si>
-  <si>
-    <t>财务应付核销</t>
-  </si>
-  <si>
-    <t>回扣核销</t>
-  </si>
-  <si>
-    <t>短驳费应付核销</t>
-  </si>
-  <si>
-    <t>办事处送货核销</t>
-  </si>
-  <si>
-    <t>办事处中转核销</t>
-  </si>
-  <si>
-    <t>司机预付核销</t>
-  </si>
-  <si>
-    <t>司机欠付核销</t>
-  </si>
-  <si>
-    <t>司机到付核销</t>
-  </si>
-  <si>
-    <t>财务登记管理</t>
-  </si>
-  <si>
-    <t>收款登记</t>
-  </si>
-  <si>
-    <t>费用登记</t>
-  </si>
-  <si>
-    <t>客户信用管理</t>
-  </si>
-  <si>
-    <t>客户信用授权</t>
-  </si>
-  <si>
-    <t>报表中心</t>
-  </si>
-  <si>
-    <t>运单一览表</t>
-  </si>
-  <si>
-    <t>装车单一览表</t>
-  </si>
-  <si>
-    <t>财务日记账</t>
-  </si>
-  <si>
-    <t>销售统计表</t>
-  </si>
-  <si>
-    <t>客户流失情况统计表</t>
-  </si>
-  <si>
-    <t>客户对账表</t>
-  </si>
-  <si>
-    <t>单车毛利明细表</t>
-  </si>
-  <si>
-    <t>利润分析报表</t>
-  </si>
-  <si>
-    <t>基础档案</t>
-  </si>
-  <si>
-    <t>办事处档案</t>
-  </si>
-  <si>
-    <t>线路档案</t>
-  </si>
-  <si>
-    <t>业务员档案</t>
-  </si>
-  <si>
-    <t>客户档案</t>
-  </si>
-  <si>
-    <t>货品档案</t>
-  </si>
-  <si>
-    <t>到达站档案</t>
-  </si>
-  <si>
-    <t>大车档案</t>
-  </si>
-  <si>
-    <t>小车档案</t>
-  </si>
-  <si>
-    <t>中转公司档案</t>
-  </si>
-  <si>
-    <t>银行账户</t>
-  </si>
-  <si>
-    <t>收款项目</t>
-  </si>
-  <si>
-    <t>付款项目</t>
-  </si>
-  <si>
-    <t>信用等级档案</t>
-  </si>
-  <si>
-    <t>系统维护中心</t>
-  </si>
-  <si>
-    <t>模块管理</t>
-  </si>
-  <si>
-    <t>权限管理</t>
-  </si>
-  <si>
-    <t>人员管理</t>
-  </si>
-  <si>
-    <t>角色管理</t>
-  </si>
-  <si>
-    <t>打印设置</t>
-  </si>
-  <si>
-    <t>打印信封</t>
-  </si>
-  <si>
-    <t>打印标签</t>
-  </si>
-  <si>
-    <t>打印运单</t>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单明细查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单明晰修改(普通)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单明晰修改(金额)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登记</t>
-  </si>
-  <si>
-    <t>登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看费用字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认签收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、创建公司dbo.tb_b_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、创建管理员dbo.tb_b_user，ClientKind=99以便后面区分原始账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景：部署给新的公司，快速搭建软环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、创建角色dbo.tb_b_roledb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、创建用户角色dbo.tb_b_user_role（只需关联 86FFCE23-9A68-43E0-9902-A0E1D6D95DA7 权限管理，后面可以界面勾选操作）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QTSR</t>
-  </si>
-  <si>
-    <t>SSZB</t>
-  </si>
-  <si>
-    <t>SCFL</t>
-  </si>
-  <si>
-    <t>ZTBSH</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>QTYSK</t>
-  </si>
-  <si>
-    <t>JHDK</t>
-  </si>
-  <si>
-    <t>DCBZH</t>
-  </si>
-  <si>
-    <t>ZZGSPK</t>
-  </si>
-  <si>
-    <t>GHSHDZ</t>
-  </si>
-  <si>
-    <t>DFYF</t>
-  </si>
-  <si>
-    <t>HHYF</t>
-  </si>
-  <si>
-    <t>JZMTZHFK</t>
-  </si>
-  <si>
-    <t>GRPK</t>
-  </si>
-  <si>
-    <t>MNN</t>
-  </si>
-  <si>
-    <t>DQJK</t>
-  </si>
-  <si>
-    <t>NBWL</t>
-  </si>
-  <si>
-    <t>YKYJ</t>
-  </si>
-  <si>
-    <t>DDXHF</t>
-  </si>
-  <si>
-    <t>MYTY</t>
   </si>
 </sst>
 </file>
@@ -690,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,512 +714,515 @@
     <col min="4" max="5" width="21.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
         <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
         <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
         <v>53</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1234,27 +1247,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1275,107 +1288,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/tms权限.xlsx
+++ b/tms权限.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
   <si>
     <t>运单管理</t>
   </si>
@@ -346,13 +346,19 @@
   <si>
     <t>导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取押金</t>
+  </si>
+  <si>
+    <t>退还押金</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +380,22 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -404,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,6 +441,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,7 +734,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -726,39 +757,40 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -790,18 +822,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
+      <c r="C6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">

--- a/tms权限.xlsx
+++ b/tms权限.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
   <si>
     <t>运单管理</t>
   </si>
@@ -55,303 +55,309 @@
     <t>欠付运费核销</t>
   </si>
   <si>
+    <t>财务应付核销</t>
+  </si>
+  <si>
+    <t>回扣核销</t>
+  </si>
+  <si>
+    <t>短驳费应付核销</t>
+  </si>
+  <si>
+    <t>办事处送货核销</t>
+  </si>
+  <si>
+    <t>办事处中转核销</t>
+  </si>
+  <si>
+    <t>司机预付核销</t>
+  </si>
+  <si>
+    <t>司机欠付核销</t>
+  </si>
+  <si>
+    <t>财务登记管理</t>
+  </si>
+  <si>
+    <t>收款登记</t>
+  </si>
+  <si>
+    <t>费用登记</t>
+  </si>
+  <si>
+    <t>客户信用管理</t>
+  </si>
+  <si>
+    <t>客户信用授权</t>
+  </si>
+  <si>
+    <t>报表中心</t>
+  </si>
+  <si>
+    <t>运单一览表</t>
+  </si>
+  <si>
+    <t>装车单一览表</t>
+  </si>
+  <si>
+    <t>财务日记账</t>
+  </si>
+  <si>
+    <t>销售统计表</t>
+  </si>
+  <si>
+    <t>客户流失情况统计表</t>
+  </si>
+  <si>
+    <t>客户对账表</t>
+  </si>
+  <si>
+    <t>单车毛利明细表</t>
+  </si>
+  <si>
+    <t>利润分析报表</t>
+  </si>
+  <si>
+    <t>基础档案</t>
+  </si>
+  <si>
+    <t>办事处档案</t>
+  </si>
+  <si>
+    <t>线路档案</t>
+  </si>
+  <si>
+    <t>业务员档案</t>
+  </si>
+  <si>
+    <t>客户档案</t>
+  </si>
+  <si>
+    <t>货品档案</t>
+  </si>
+  <si>
+    <t>到达站档案</t>
+  </si>
+  <si>
+    <t>大车档案</t>
+  </si>
+  <si>
+    <t>小车档案</t>
+  </si>
+  <si>
+    <t>中转公司档案</t>
+  </si>
+  <si>
+    <t>银行账户</t>
+  </si>
+  <si>
+    <t>收款项目</t>
+  </si>
+  <si>
+    <t>付款项目</t>
+  </si>
+  <si>
+    <t>信用等级档案</t>
+  </si>
+  <si>
+    <t>系统维护中心</t>
+  </si>
+  <si>
+    <t>模块管理</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>人员管理</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>打印设置</t>
+  </si>
+  <si>
+    <t>打印信封</t>
+  </si>
+  <si>
+    <t>打印标签</t>
+  </si>
+  <si>
+    <t>打印运单</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单明细查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单明晰修改(普通)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单明晰修改(金额)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记</t>
+  </si>
+  <si>
+    <t>登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看费用字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认签收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、创建公司dbo.tb_b_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、创建管理员dbo.tb_b_user，ClientKind=99以便后面区分原始账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：部署给新的公司，快速搭建软环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、创建角色dbo.tb_b_roledb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、创建用户角色dbo.tb_b_user_role（只需关联 86FFCE23-9A68-43E0-9902-A0E1D6D95DA7 权限管理，后面可以界面勾选操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTSR</t>
+  </si>
+  <si>
+    <t>SSZB</t>
+  </si>
+  <si>
+    <t>SCFL</t>
+  </si>
+  <si>
+    <t>ZTBSH</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>QTYSK</t>
+  </si>
+  <si>
+    <t>JHDK</t>
+  </si>
+  <si>
+    <t>DCBZH</t>
+  </si>
+  <si>
+    <t>ZZGSPK</t>
+  </si>
+  <si>
+    <t>GHSHDZ</t>
+  </si>
+  <si>
+    <t>DFYF</t>
+  </si>
+  <si>
+    <t>HHYF</t>
+  </si>
+  <si>
+    <t>JZMTZHFK</t>
+  </si>
+  <si>
+    <t>GRPK</t>
+  </si>
+  <si>
+    <t>MNN</t>
+  </si>
+  <si>
+    <t>DQJK</t>
+  </si>
+  <si>
+    <t>NBWL</t>
+  </si>
+  <si>
+    <t>YKYJ</t>
+  </si>
+  <si>
+    <t>DDXHF</t>
+  </si>
+  <si>
+    <t>MYTY</t>
+  </si>
+  <si>
+    <t>运单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回单批量登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取押金</t>
+  </si>
+  <si>
+    <t>退还押金</t>
+  </si>
+  <si>
+    <t>财务应付核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机到付核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>到付运费核销</t>
-  </si>
-  <si>
-    <t>财务应付核销</t>
-  </si>
-  <si>
-    <t>回扣核销</t>
-  </si>
-  <si>
-    <t>短驳费应付核销</t>
-  </si>
-  <si>
-    <t>办事处送货核销</t>
-  </si>
-  <si>
-    <t>办事处中转核销</t>
-  </si>
-  <si>
-    <t>司机预付核销</t>
-  </si>
-  <si>
-    <t>司机欠付核销</t>
-  </si>
-  <si>
-    <t>司机到付核销</t>
-  </si>
-  <si>
-    <t>财务登记管理</t>
-  </si>
-  <si>
-    <t>收款登记</t>
-  </si>
-  <si>
-    <t>费用登记</t>
-  </si>
-  <si>
-    <t>客户信用管理</t>
-  </si>
-  <si>
-    <t>客户信用授权</t>
-  </si>
-  <si>
-    <t>报表中心</t>
-  </si>
-  <si>
-    <t>运单一览表</t>
-  </si>
-  <si>
-    <t>装车单一览表</t>
-  </si>
-  <si>
-    <t>财务日记账</t>
-  </si>
-  <si>
-    <t>销售统计表</t>
-  </si>
-  <si>
-    <t>客户流失情况统计表</t>
-  </si>
-  <si>
-    <t>客户对账表</t>
-  </si>
-  <si>
-    <t>单车毛利明细表</t>
-  </si>
-  <si>
-    <t>利润分析报表</t>
-  </si>
-  <si>
-    <t>基础档案</t>
-  </si>
-  <si>
-    <t>办事处档案</t>
-  </si>
-  <si>
-    <t>线路档案</t>
-  </si>
-  <si>
-    <t>业务员档案</t>
-  </si>
-  <si>
-    <t>客户档案</t>
-  </si>
-  <si>
-    <t>货品档案</t>
-  </si>
-  <si>
-    <t>到达站档案</t>
-  </si>
-  <si>
-    <t>大车档案</t>
-  </si>
-  <si>
-    <t>小车档案</t>
-  </si>
-  <si>
-    <t>中转公司档案</t>
-  </si>
-  <si>
-    <t>银行账户</t>
-  </si>
-  <si>
-    <t>收款项目</t>
-  </si>
-  <si>
-    <t>付款项目</t>
-  </si>
-  <si>
-    <t>信用等级档案</t>
-  </si>
-  <si>
-    <t>系统维护中心</t>
-  </si>
-  <si>
-    <t>模块管理</t>
-  </si>
-  <si>
-    <t>权限管理</t>
-  </si>
-  <si>
-    <t>人员管理</t>
-  </si>
-  <si>
-    <t>角色管理</t>
-  </si>
-  <si>
-    <t>打印设置</t>
-  </si>
-  <si>
-    <t>打印信封</t>
-  </si>
-  <si>
-    <t>打印标签</t>
-  </si>
-  <si>
-    <t>打印运单</t>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单明细查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单明晰修改(普通)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单明晰修改(金额)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登记</t>
-  </si>
-  <si>
-    <t>登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看费用字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认签收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、创建公司dbo.tb_b_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、创建管理员dbo.tb_b_user，ClientKind=99以便后面区分原始账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景：部署给新的公司，快速搭建软环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、创建角色dbo.tb_b_roledb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、创建用户角色dbo.tb_b_user_role（只需关联 86FFCE23-9A68-43E0-9902-A0E1D6D95DA7 权限管理，后面可以界面勾选操作）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QTSR</t>
-  </si>
-  <si>
-    <t>SSZB</t>
-  </si>
-  <si>
-    <t>SCFL</t>
-  </si>
-  <si>
-    <t>ZTBSH</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>QTYSK</t>
-  </si>
-  <si>
-    <t>JHDK</t>
-  </si>
-  <si>
-    <t>DCBZH</t>
-  </si>
-  <si>
-    <t>ZZGSPK</t>
-  </si>
-  <si>
-    <t>GHSHDZ</t>
-  </si>
-  <si>
-    <t>DFYF</t>
-  </si>
-  <si>
-    <t>HHYF</t>
-  </si>
-  <si>
-    <t>JZMTZHFK</t>
-  </si>
-  <si>
-    <t>GRPK</t>
-  </si>
-  <si>
-    <t>MNN</t>
-  </si>
-  <si>
-    <t>DQJK</t>
-  </si>
-  <si>
-    <t>NBWL</t>
-  </si>
-  <si>
-    <t>YKYJ</t>
-  </si>
-  <si>
-    <t>DDXHF</t>
-  </si>
-  <si>
-    <t>MYTY</t>
-  </si>
-  <si>
-    <t>运单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回单批量登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取押金</t>
-  </si>
-  <si>
-    <t>退还押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -733,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -747,30 +753,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -779,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -802,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -816,10 +822,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -830,13 +836,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -847,10 +853,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -861,403 +867,403 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
+      <c r="B9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
         <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
         <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1282,27 +1288,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1323,107 +1329,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/tms权限.xlsx
+++ b/tms权限.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
   <si>
     <t>运单管理</t>
   </si>
@@ -64,299 +64,301 @@
     <t>短驳费应付核销</t>
   </si>
   <si>
+    <t>司机预付核销</t>
+  </si>
+  <si>
+    <t>司机欠付核销</t>
+  </si>
+  <si>
+    <t>财务登记管理</t>
+  </si>
+  <si>
+    <t>收款登记</t>
+  </si>
+  <si>
+    <t>费用登记</t>
+  </si>
+  <si>
+    <t>客户信用管理</t>
+  </si>
+  <si>
+    <t>客户信用授权</t>
+  </si>
+  <si>
+    <t>报表中心</t>
+  </si>
+  <si>
+    <t>运单一览表</t>
+  </si>
+  <si>
+    <t>装车单一览表</t>
+  </si>
+  <si>
+    <t>财务日记账</t>
+  </si>
+  <si>
+    <t>销售统计表</t>
+  </si>
+  <si>
+    <t>客户流失情况统计表</t>
+  </si>
+  <si>
+    <t>客户对账表</t>
+  </si>
+  <si>
+    <t>单车毛利明细表</t>
+  </si>
+  <si>
+    <t>利润分析报表</t>
+  </si>
+  <si>
+    <t>基础档案</t>
+  </si>
+  <si>
+    <t>办事处档案</t>
+  </si>
+  <si>
+    <t>线路档案</t>
+  </si>
+  <si>
+    <t>业务员档案</t>
+  </si>
+  <si>
+    <t>客户档案</t>
+  </si>
+  <si>
+    <t>货品档案</t>
+  </si>
+  <si>
+    <t>到达站档案</t>
+  </si>
+  <si>
+    <t>大车档案</t>
+  </si>
+  <si>
+    <t>小车档案</t>
+  </si>
+  <si>
+    <t>中转公司档案</t>
+  </si>
+  <si>
+    <t>银行账户</t>
+  </si>
+  <si>
+    <t>收款项目</t>
+  </si>
+  <si>
+    <t>付款项目</t>
+  </si>
+  <si>
+    <t>信用等级档案</t>
+  </si>
+  <si>
+    <t>系统维护中心</t>
+  </si>
+  <si>
+    <t>模块管理</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>人员管理</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>打印设置</t>
+  </si>
+  <si>
+    <t>打印信封</t>
+  </si>
+  <si>
+    <t>打印标签</t>
+  </si>
+  <si>
+    <t>打印运单</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单明细查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单明晰修改(普通)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单明晰修改(金额)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记</t>
+  </si>
+  <si>
+    <t>登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看费用字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认签收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、创建公司dbo.tb_b_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、创建管理员dbo.tb_b_user，ClientKind=99以便后面区分原始账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：部署给新的公司，快速搭建软环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、创建角色dbo.tb_b_roledb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、创建用户角色dbo.tb_b_user_role（只需关联 86FFCE23-9A68-43E0-9902-A0E1D6D95DA7 权限管理，后面可以界面勾选操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTSR</t>
+  </si>
+  <si>
+    <t>SSZB</t>
+  </si>
+  <si>
+    <t>SCFL</t>
+  </si>
+  <si>
+    <t>ZTBSH</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>QTYSK</t>
+  </si>
+  <si>
+    <t>JHDK</t>
+  </si>
+  <si>
+    <t>DCBZH</t>
+  </si>
+  <si>
+    <t>ZZGSPK</t>
+  </si>
+  <si>
+    <t>GHSHDZ</t>
+  </si>
+  <si>
+    <t>DFYF</t>
+  </si>
+  <si>
+    <t>HHYF</t>
+  </si>
+  <si>
+    <t>JZMTZHFK</t>
+  </si>
+  <si>
+    <t>GRPK</t>
+  </si>
+  <si>
+    <t>MNN</t>
+  </si>
+  <si>
+    <t>DQJK</t>
+  </si>
+  <si>
+    <t>NBWL</t>
+  </si>
+  <si>
+    <t>YKYJ</t>
+  </si>
+  <si>
+    <t>DDXHF</t>
+  </si>
+  <si>
+    <t>MYTY</t>
+  </si>
+  <si>
+    <t>运单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回单批量登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取押金</t>
+  </si>
+  <si>
+    <t>退还押金</t>
+  </si>
+  <si>
+    <t>财务应付核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机到付核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到付运费核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>办事处送货核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>办事处中转核销</t>
-  </si>
-  <si>
-    <t>司机预付核销</t>
-  </si>
-  <si>
-    <t>司机欠付核销</t>
-  </si>
-  <si>
-    <t>财务登记管理</t>
-  </si>
-  <si>
-    <t>收款登记</t>
-  </si>
-  <si>
-    <t>费用登记</t>
-  </si>
-  <si>
-    <t>客户信用管理</t>
-  </si>
-  <si>
-    <t>客户信用授权</t>
-  </si>
-  <si>
-    <t>报表中心</t>
-  </si>
-  <si>
-    <t>运单一览表</t>
-  </si>
-  <si>
-    <t>装车单一览表</t>
-  </si>
-  <si>
-    <t>财务日记账</t>
-  </si>
-  <si>
-    <t>销售统计表</t>
-  </si>
-  <si>
-    <t>客户流失情况统计表</t>
-  </si>
-  <si>
-    <t>客户对账表</t>
-  </si>
-  <si>
-    <t>单车毛利明细表</t>
-  </si>
-  <si>
-    <t>利润分析报表</t>
-  </si>
-  <si>
-    <t>基础档案</t>
-  </si>
-  <si>
-    <t>办事处档案</t>
-  </si>
-  <si>
-    <t>线路档案</t>
-  </si>
-  <si>
-    <t>业务员档案</t>
-  </si>
-  <si>
-    <t>客户档案</t>
-  </si>
-  <si>
-    <t>货品档案</t>
-  </si>
-  <si>
-    <t>到达站档案</t>
-  </si>
-  <si>
-    <t>大车档案</t>
-  </si>
-  <si>
-    <t>小车档案</t>
-  </si>
-  <si>
-    <t>中转公司档案</t>
-  </si>
-  <si>
-    <t>银行账户</t>
-  </si>
-  <si>
-    <t>收款项目</t>
-  </si>
-  <si>
-    <t>付款项目</t>
-  </si>
-  <si>
-    <t>信用等级档案</t>
-  </si>
-  <si>
-    <t>系统维护中心</t>
-  </si>
-  <si>
-    <t>模块管理</t>
-  </si>
-  <si>
-    <t>权限管理</t>
-  </si>
-  <si>
-    <t>人员管理</t>
-  </si>
-  <si>
-    <t>角色管理</t>
-  </si>
-  <si>
-    <t>打印设置</t>
-  </si>
-  <si>
-    <t>打印信封</t>
-  </si>
-  <si>
-    <t>打印标签</t>
-  </si>
-  <si>
-    <t>打印运单</t>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单明细查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单明晰修改(普通)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单明晰修改(金额)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登记</t>
-  </si>
-  <si>
-    <t>登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看费用字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认签收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、创建公司dbo.tb_b_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、创建管理员dbo.tb_b_user，ClientKind=99以便后面区分原始账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景：部署给新的公司，快速搭建软环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、创建角色dbo.tb_b_roledb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、创建用户角色dbo.tb_b_user_role（只需关联 86FFCE23-9A68-43E0-9902-A0E1D6D95DA7 权限管理，后面可以界面勾选操作）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QTSR</t>
-  </si>
-  <si>
-    <t>SSZB</t>
-  </si>
-  <si>
-    <t>SCFL</t>
-  </si>
-  <si>
-    <t>ZTBSH</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>QTYSK</t>
-  </si>
-  <si>
-    <t>JHDK</t>
-  </si>
-  <si>
-    <t>DCBZH</t>
-  </si>
-  <si>
-    <t>ZZGSPK</t>
-  </si>
-  <si>
-    <t>GHSHDZ</t>
-  </si>
-  <si>
-    <t>DFYF</t>
-  </si>
-  <si>
-    <t>HHYF</t>
-  </si>
-  <si>
-    <t>JZMTZHFK</t>
-  </si>
-  <si>
-    <t>GRPK</t>
-  </si>
-  <si>
-    <t>MNN</t>
-  </si>
-  <si>
-    <t>DQJK</t>
-  </si>
-  <si>
-    <t>NBWL</t>
-  </si>
-  <si>
-    <t>YKYJ</t>
-  </si>
-  <si>
-    <t>DDXHF</t>
-  </si>
-  <si>
-    <t>MYTY</t>
-  </si>
-  <si>
-    <t>运单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回单批量登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取押金</t>
-  </si>
-  <si>
-    <t>退还押金</t>
-  </si>
-  <si>
-    <t>财务应付核销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机到付核销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到付运费核销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,6 +457,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -753,30 +758,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -785,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -808,10 +813,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -822,10 +827,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -836,44 +841,47 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>64</v>
+      <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>65</v>
+      <c r="C8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -881,13 +889,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -898,372 +909,390 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>64</v>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="C14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>64</v>
+      <c r="C15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
         <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
         <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1288,27 +1317,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1329,107 +1358,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tms权限.xlsx
+++ b/tms权限.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>运单管理</t>
   </si>
@@ -359,6 +359,10 @@
   </si>
   <si>
     <t>办事处中转核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +749,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -806,31 +810,31 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>61</v>
+      <c r="C4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>61</v>
+      <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -902,17 +906,20 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>62</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
